--- a/biology/Médecine/Microangiopathie/Microangiopathie.xlsx
+++ b/biology/Médecine/Microangiopathie/Microangiopathie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La microangiopathie est une angiopathie qui atteint des vaisseaux sanguins de petits calibres.
 Elle peut se situer au niveau de l'œil (voir rétinopathie diabétique), du cerveau, du rein (néphropathie) ou des nerfs.
